--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_182.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_182.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0711590296495957</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1454545454545454</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>[['E:7', 'A:min', 'D:min'], ['A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.243, 9.12)]</t>
+          <t>[['G:7', 'C:min', 'F:min'], ['C:min', 'F:min', 'C:min/5']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.708503, 25.501882)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:53.460000', '0:01:01.800000'), ('0:00:16.880000', '0:00:24.840000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:02:36.152000', '0:02:39.022000'), ('0:01:24.323000', '0:01:27.713000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(81.28, 89.42)]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.44, 17.54)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:33.440000', '0:01:38.780000'), ('0:00:40.120000', '0:00:47.880000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:43.660000', '0:01:50.880000'), ('0:02:20.480000', '0:02:25.980000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.09642857142857142</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(72.82, 80.0)]</t>
+          <t>[['A#/F', 'F:7', 'A#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(251.5, 255.38)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:05.280000', '0:01:11')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:04:31.220000', '0:04:35.780000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_8</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.02749669100380001</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj6', 'Ab:maj6'], ['Ab:maj6', 'Ab:maj6', 'Eb:7', 'Ab:maj6']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_34</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1863354037267081</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:maj6', 'G:min7'], ['Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6']]</t>
+          <t>[['D', 'D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.34, 40.38), (38.55, 41.59)]</t>
+          <t>[['Eb', 'Eb/5', 'Ab', 'Eb/3']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.9, 9.97), (15.14, 17.15)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:35.013000', '0:00:41.726000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:23.266780', '0:01:32.322562')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.119047619047619</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'C'], ['F', 'C', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G'], ['C', 'G', 'F']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.749659, 21.811609), (5.139682, 11.699319)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.252358, 5.805011), (0.446041, 3.146326)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2807692307692308</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(17.56, 38.64)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(53.0, 62.0)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.86, 23.82)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.64, 23.8)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2913752913752914</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.75</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min', 'A#:7/G#', 'D#:min/F#']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(11.7, 23.04)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.0, 17.64)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_179</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1832386363636364</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb/2', 'Bb']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(92.073492, 95.022426)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(40.219, 45.818)]</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(57.5, 59.68)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.26, 17.16)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(2.64, 7.3)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(88.76, 98.3)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.04071947952544967</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb', 'C:min7', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.37, 2.67)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(65.42, 71.7)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.298780487804878</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F', 'C:7']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(237.58, 249.08)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(49.61, 56.99)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(118.4, 121.72)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(5.146, 9.474)]</t>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(146.52, 179.42)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(103.94, 127.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
